--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3593.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3593.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.736180384555448</v>
+        <v>1.146286725997925</v>
       </c>
       <c r="B1">
-        <v>4.199745840880526</v>
+        <v>3.700870752334595</v>
       </c>
       <c r="C1">
-        <v>3.974252096672705</v>
+        <v>4.405519962310791</v>
       </c>
       <c r="D1">
-        <v>1.199725285425412</v>
+        <v>1.851027607917786</v>
       </c>
       <c r="E1">
-        <v>0.8162527664418382</v>
+        <v>1.285533785820007</v>
       </c>
     </row>
   </sheetData>
